--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>ID</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>技能范围</t>
+  </si>
+  <si>
+    <t>伤害距离</t>
   </si>
   <si>
     <t>技能描述</t>
@@ -87,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -484,10 +487,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -495,16 +498,16 @@
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="14.875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
-    <col min="10" max="11" width="15.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="4" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="16.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="1" customWidth="1"/>
+    <col min="11" max="12" width="15.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,225 +544,226 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="9:13">
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="8:12">
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="8:12">
-      <c r="H4" s="1">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="9:13">
+      <c r="I4" s="1">
         <v>3</v>
-      </c>
-      <c r="I4" s="1">
-        <v>20</v>
       </c>
       <c r="J4" s="1">
         <v>20</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="1">
+        <v>20</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="9:13">
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="9:13">
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>40</v>
+      </c>
+      <c r="K6" s="1">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="9:13">
+      <c r="I7" s="1">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>50</v>
+      </c>
+      <c r="K7" s="1">
+        <v>35</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="9:13">
+      <c r="I8" s="1">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1">
+        <v>60</v>
+      </c>
+      <c r="K8" s="1">
+        <v>40</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="9:13">
+      <c r="I9" s="1">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1">
+        <v>70</v>
+      </c>
+      <c r="K9" s="1">
+        <v>45</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="9:13">
+      <c r="I10" s="1">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1">
+        <v>80</v>
+      </c>
+      <c r="K10" s="1">
+        <v>50</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="8:12">
-      <c r="H5" s="1">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1">
-        <v>25</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="8:12">
-      <c r="H6" s="1">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1">
-        <v>40</v>
-      </c>
-      <c r="J6" s="1">
-        <v>30</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="8:12">
-      <c r="H7" s="1">
-        <v>6</v>
-      </c>
-      <c r="I7" s="1">
-        <v>50</v>
-      </c>
-      <c r="J7" s="1">
-        <v>35</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="8:12">
-      <c r="H8" s="1">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1">
-        <v>60</v>
-      </c>
-      <c r="J8" s="1">
-        <v>40</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="8:12">
-      <c r="H9" s="1">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1">
-        <v>70</v>
-      </c>
-      <c r="J9" s="1">
-        <v>45</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="8:12">
-      <c r="H10" s="1">
-        <v>9</v>
-      </c>
-      <c r="I10" s="1">
-        <v>80</v>
-      </c>
-      <c r="J10" s="1">
-        <v>50</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>10</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 D11 F11 D1:D10 D12:D1048576 F1:F10 F12:F1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11 G2:G10 G12:G1048576">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H2:H10 H12:H1048576">
       <formula1>"恢复,伤害"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C11 C4:C10 C12:C65536">
       <formula1>"近战,远程"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 E1 F1 H1 D11 G11 D1:D10 D12:D1048576 G1:G10 G12:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576 F2:F1048576">
       <formula1>"单个,全体"</formula1>
     </dataValidation>
   </dataValidations>
